--- a/単体・総合テスト - 公開用ー/総合テスト .xlsx
+++ b/単体・総合テスト - 公開用ー/総合テスト .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\単体・総合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\単体・総合テスト - 公開用ー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08E832F-2D20-42EE-A99D-CE6682250249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AE99EE-61B8-46CF-8078-358B4FF2ADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D09E1E91-4D60-409D-B824-A3C6CF61FC3B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="223">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -729,45 +729,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/regist/regist_confirm.php」と入力する。</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/regist/regist_complete.php」と入力する。</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/delete/delete.php」と入力する。</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/delete/delete_confirm.php」と入力する。</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
@@ -781,71 +742,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/delete/delete_complete.php」と入力する。</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/update/update.php」と入力する。</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/update/update_confirm.php」と入力する。</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/update/update_complete.php」と入力する。</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/mypage.php」と入力する。</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログインしメインページ表示</t>
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
@@ -1009,29 +905,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>右上のmain pageを押す</t>
-    <rPh sb="0" eb="2">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マイページに移行し、右上のmain pageを押す</t>
-    <rPh sb="6" eb="8">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログインしマイページ表示</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
@@ -1929,16 +1802,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>右上のMainpageのボタン押す</t>
-    <rPh sb="0" eb="2">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>削除確認画面</t>
     <rPh sb="0" eb="6">
       <t>サクジョカクニンガメン</t>
@@ -2108,6 +1971,171 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああと入力する</t>
+    <rPh sb="98" eb="100">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1を大量に投稿</t>
+    <rPh sb="2" eb="4">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メアドtest2@mail.com、パスワードtest2と入力しログインボタン押す</t>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メアドbaba@mail.com、パスワードbabaと入力しログインボタン押す</t>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「https://localhost/ToDoList/regist/regist_confirm.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「https://localhost/ToDoList/regist/regist_complete.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「https://localhost/ToDoList/delete/delete.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「https://localhost/ToDoList/delete/delete_complete.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「https://localhost/ToDoList/update/update.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「https://localhost/ToDoList/update/update_confirm.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「https://localhost/ToDoList/update/update_complete.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「https://localhost/ToDoList/mypage.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上のmy pageを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jiji@mail.comでログイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上のMypageのボタン押す</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2210,7 +2238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2268,6 +2296,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2550,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EAAC31-68CE-492E-A6CE-71BA9CDAFA80}">
   <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2633,7 +2663,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K2" s="13"/>
     </row>
@@ -2666,13 +2696,13 @@
         <v>12</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="93.75">
       <c r="A4" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>83</v>
@@ -2686,6 +2716,9 @@
       <c r="E4" s="9" t="s">
         <v>84</v>
       </c>
+      <c r="F4" s="9" t="s">
+        <v>208</v>
+      </c>
       <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2696,7 +2729,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K4" s="9"/>
     </row>
@@ -2716,6 +2749,9 @@
       <c r="E5" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="F5" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
@@ -2726,7 +2762,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -2759,7 +2795,7 @@
         <v>12</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K6" s="9"/>
     </row>
@@ -2792,7 +2828,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K7" s="9"/>
     </row>
@@ -2825,7 +2861,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K8" s="9"/>
     </row>
@@ -2845,7 +2881,9 @@
       <c r="E9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="22" t="s">
+        <v>210</v>
+      </c>
       <c r="G9" s="8" t="s">
         <v>11</v>
       </c>
@@ -2856,7 +2894,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -2876,6 +2914,9 @@
       <c r="E10" s="9" t="s">
         <v>104</v>
       </c>
+      <c r="F10" s="21" t="s">
+        <v>211</v>
+      </c>
       <c r="G10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2886,7 +2927,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -2919,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K11" s="8"/>
     </row>
@@ -2952,7 +2993,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K12" s="8"/>
     </row>
@@ -2967,13 +3008,13 @@
         <v>105</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>11</v>
@@ -2985,7 +3026,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K13" s="8"/>
     </row>
@@ -3000,13 +3041,13 @@
         <v>105</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>11</v>
@@ -3018,7 +3059,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K14" s="8"/>
     </row>
@@ -3033,13 +3074,13 @@
         <v>105</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>11</v>
@@ -3051,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K15" s="8"/>
     </row>
@@ -3066,13 +3107,13 @@
         <v>105</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>11</v>
@@ -3084,7 +3125,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K16" s="8"/>
     </row>
@@ -3099,13 +3140,13 @@
         <v>105</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>11</v>
@@ -3117,7 +3158,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K17" s="8"/>
     </row>
@@ -3132,13 +3173,13 @@
         <v>105</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>11</v>
@@ -3150,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K18" s="8"/>
     </row>
@@ -3165,13 +3206,13 @@
         <v>105</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>11</v>
@@ -3183,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K19" s="8"/>
     </row>
@@ -3198,13 +3239,13 @@
         <v>105</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>11</v>
@@ -3216,7 +3257,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K20" s="8"/>
     </row>
@@ -3231,13 +3272,13 @@
         <v>105</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>11</v>
@@ -3249,7 +3290,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K21" s="8"/>
     </row>
@@ -3261,16 +3302,16 @@
         <v>83</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>11</v>
@@ -3282,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K22" s="8"/>
     </row>
@@ -3294,16 +3335,16 @@
         <v>83</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>11</v>
@@ -3315,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K23" s="8"/>
     </row>
@@ -3327,16 +3368,16 @@
         <v>83</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>11</v>
@@ -3348,7 +3389,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K24" s="8"/>
     </row>
@@ -3360,16 +3401,16 @@
         <v>83</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="F25" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>11</v>
@@ -3381,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K25" s="8"/>
     </row>
@@ -3393,16 +3434,16 @@
         <v>83</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>11</v>
@@ -3414,7 +3455,7 @@
         <v>12</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K26" s="8"/>
     </row>
@@ -3426,16 +3467,16 @@
         <v>83</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>11</v>
@@ -3447,7 +3488,7 @@
         <v>12</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K27" s="8"/>
     </row>
@@ -3456,19 +3497,19 @@
         <v>39</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>11</v>
@@ -3480,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K28" s="8"/>
     </row>
@@ -3489,19 +3530,19 @@
         <v>40</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>11</v>
@@ -3513,7 +3554,7 @@
         <v>12</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K29" s="8"/>
     </row>
@@ -3522,19 +3563,19 @@
         <v>41</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>11</v>
@@ -3546,7 +3587,7 @@
         <v>12</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K30" s="8"/>
     </row>
@@ -3555,19 +3596,19 @@
         <v>42</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>11</v>
@@ -3579,7 +3620,7 @@
         <v>12</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K31" s="8"/>
     </row>
@@ -3588,19 +3629,19 @@
         <v>43</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>11</v>
@@ -3612,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K32" s="8"/>
     </row>
@@ -3621,19 +3662,19 @@
         <v>44</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>11</v>
@@ -3645,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K33" s="8"/>
     </row>
@@ -3654,19 +3695,19 @@
         <v>45</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="F34" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>11</v>
@@ -3678,7 +3719,7 @@
         <v>12</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K34" s="8"/>
     </row>
@@ -3687,19 +3728,19 @@
         <v>46</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>11</v>
@@ -3711,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K35" s="8"/>
     </row>
@@ -3720,19 +3761,19 @@
         <v>47</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>11</v>
@@ -3744,7 +3785,7 @@
         <v>12</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K36" s="8"/>
     </row>
@@ -3753,19 +3794,19 @@
         <v>48</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>11</v>
@@ -3777,7 +3818,7 @@
         <v>12</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K37" s="8"/>
     </row>
@@ -3786,16 +3827,19 @@
         <v>49</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>160</v>
+      <c r="F38" s="21" t="s">
+        <v>221</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>11</v>
@@ -3807,7 +3851,7 @@
         <v>12</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K38" s="8"/>
     </row>
@@ -3816,16 +3860,19 @@
         <v>50</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="E39" s="9" t="s">
-        <v>162</v>
+        <v>152</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>11</v>
@@ -3837,7 +3884,7 @@
         <v>12</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K39" s="8"/>
     </row>
@@ -3846,19 +3893,19 @@
         <v>51</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>11</v>
@@ -3870,7 +3917,7 @@
         <v>12</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K40" s="8"/>
     </row>
@@ -3879,19 +3926,19 @@
         <v>52</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>104</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>11</v>
@@ -3903,7 +3950,7 @@
         <v>12</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K41" s="8"/>
     </row>
@@ -3912,19 +3959,19 @@
         <v>53</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>11</v>
@@ -3936,7 +3983,7 @@
         <v>12</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K42" s="8"/>
     </row>
@@ -3945,19 +3992,19 @@
         <v>54</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>11</v>
@@ -3969,7 +4016,7 @@
         <v>12</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K43" s="8"/>
     </row>
@@ -3978,19 +4025,19 @@
         <v>55</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>11</v>
@@ -4002,7 +4049,7 @@
         <v>12</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K44" s="8"/>
     </row>
@@ -4011,19 +4058,19 @@
         <v>56</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>11</v>
@@ -4035,7 +4082,7 @@
         <v>12</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K45" s="8"/>
     </row>
@@ -4044,19 +4091,19 @@
         <v>57</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>11</v>
@@ -4068,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K46" s="8"/>
     </row>
@@ -4077,19 +4124,19 @@
         <v>58</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>11</v>
@@ -4101,7 +4148,7 @@
         <v>12</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K47" s="8"/>
     </row>
@@ -4110,19 +4157,19 @@
         <v>59</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>11</v>
@@ -4134,7 +4181,7 @@
         <v>12</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K48" s="8"/>
     </row>
@@ -4143,19 +4190,19 @@
         <v>60</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>11</v>
@@ -4167,7 +4214,7 @@
         <v>12</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K49" s="8"/>
     </row>
@@ -4176,19 +4223,19 @@
         <v>61</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>11</v>
@@ -4200,7 +4247,7 @@
         <v>12</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K50" s="8"/>
     </row>
@@ -4209,19 +4256,19 @@
         <v>62</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>183</v>
-      </c>
       <c r="D51" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>11</v>
@@ -4233,7 +4280,7 @@
         <v>12</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K51" s="8"/>
     </row>
@@ -4242,19 +4289,19 @@
         <v>63</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>11</v>
@@ -4266,7 +4313,7 @@
         <v>12</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K52" s="8"/>
     </row>
@@ -4275,19 +4322,19 @@
         <v>64</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>11</v>
@@ -4299,7 +4346,7 @@
         <v>12</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K53" s="8"/>
     </row>
@@ -4308,19 +4355,19 @@
         <v>65</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>11</v>
@@ -4332,7 +4379,7 @@
         <v>12</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K54" s="8"/>
     </row>
@@ -4341,19 +4388,19 @@
         <v>66</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>11</v>
@@ -4365,7 +4412,7 @@
         <v>12</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K55" s="8"/>
     </row>
@@ -4374,19 +4421,19 @@
         <v>67</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="E56" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="F56" s="9" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>11</v>
@@ -4398,7 +4445,7 @@
         <v>12</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K56" s="8"/>
     </row>
@@ -4407,19 +4454,19 @@
         <v>68</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>11</v>
@@ -4431,7 +4478,7 @@
         <v>12</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K57" s="8"/>
     </row>
@@ -4440,19 +4487,19 @@
         <v>69</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>11</v>
@@ -4464,7 +4511,7 @@
         <v>12</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K58" s="8"/>
     </row>
@@ -4473,19 +4520,19 @@
         <v>70</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>11</v>
@@ -4497,7 +4544,7 @@
         <v>12</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K59" s="8"/>
     </row>
@@ -4506,19 +4553,19 @@
         <v>71</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>11</v>
@@ -4530,7 +4577,7 @@
         <v>12</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K60" s="8"/>
     </row>
@@ -4539,19 +4586,19 @@
         <v>72</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>11</v>
@@ -4563,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K61" s="8"/>
     </row>
@@ -4572,19 +4619,19 @@
         <v>73</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>11</v>
@@ -4596,7 +4643,7 @@
         <v>12</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K62" s="8"/>
     </row>
@@ -4605,19 +4652,19 @@
         <v>74</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>11</v>
@@ -4629,7 +4676,7 @@
         <v>12</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K63" s="8"/>
     </row>
@@ -4638,19 +4685,19 @@
         <v>75</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>11</v>
@@ -4662,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K64" s="8"/>
     </row>
